--- a/excel/AI Agents for Machine Learning.xlsx
+++ b/excel/AI Agents for Machine Learning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0FB2296-ED3B-4EBB-B9B2-37D878A12A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{F0FB2296-ED3B-4EBB-B9B2-37D878A12A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D653667C-9703-4467-9475-BD072915D61F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FB134401-FCFD-4DD9-A86E-41C60B081E67}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{FB134401-FCFD-4DD9-A86E-41C60B081E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Paid / Enterprise</t>
   </si>
   <si>
-    <t>Vertex AI</t>
-  </si>
-  <si>
     <t>DataRobot</t>
   </si>
   <si>
@@ -66,18 +63,12 @@
     <t>Paid</t>
   </si>
   <si>
-    <t>H2O.ai</t>
-  </si>
-  <si>
     <t>Amazon SageMaker</t>
   </si>
   <si>
     <t>Fully managed ML service with built-in algorithms</t>
   </si>
   <si>
-    <t>SageMaker</t>
-  </si>
-  <si>
     <t>Azure ML</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>Custom model building for vision, language, tabular data</t>
   </si>
   <si>
-    <t>AutoML</t>
-  </si>
-  <si>
     <t>Lobe</t>
   </si>
   <si>
@@ -144,18 +132,12 @@
     <t>Hosted Jupyter notebooks with free GPUs for ML training</t>
   </si>
   <si>
-    <t>Colab</t>
-  </si>
-  <si>
     <t>TensorFlow Extended (TFX)</t>
   </si>
   <si>
     <t>Production ML pipelines with TensorFlow</t>
   </si>
   <si>
-    <t>TFX</t>
-  </si>
-  <si>
     <t>Azure AutoML</t>
   </si>
   <si>
@@ -199,6 +181,63 @@
   </si>
   <si>
     <t>AI Agents for Machine Learning</t>
+  </si>
+  <si>
+    <t>https://admin.google.com/ServiceNotAllowed?application=995920231026&amp;source=scrip&amp;continue=https://cloud.google.com/vertex-ai</t>
+  </si>
+  <si>
+    <t>https://www.datarobot.com/</t>
+  </si>
+  <si>
+    <t>https://h2o.ai/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/sagemaker/</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/products/machine-learning/</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/products/watson-studio</t>
+  </si>
+  <si>
+    <t>https://mlflow.org/</t>
+  </si>
+  <si>
+    <t>https://admin.google.com/ServiceNotAllowed?application=995920231026&amp;source=scrip&amp;continue=https://cloud.google.com/automl</t>
+  </si>
+  <si>
+    <t>https://github.com/lobe</t>
+  </si>
+  <si>
+    <t>https://www.dataiku.com/</t>
+  </si>
+  <si>
+    <t>https://altair.com/altair-rapidminer</t>
+  </si>
+  <si>
+    <t>https://admin.google.com/ServiceNotAllowed?application=1060327061403&amp;source=scrip</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/tfx</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/services/machine-learning/automated-ml/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/sagemaker-ai/autopilot/</t>
+  </si>
+  <si>
+    <t>https://neptune.ai/</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/</t>
+  </si>
+  <si>
+    <t>https://www.comet.com/site/</t>
+  </si>
+  <si>
+    <t>https://docs.pachyderm.com/</t>
   </si>
 </sst>
 </file>
@@ -284,9 +323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -324,7 +363,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -430,7 +469,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F169CA1C-376F-4C68-98E5-871CA18EB07B}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -613,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -624,297 +663,297 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://cloud.google.com/vertex-ai" xr:uid="{8044870A-7A1E-4445-95F9-DACE8FC1552D}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.datarobot.com/" xr:uid="{15158B1D-477A-4D93-BDBA-3507D72FDBBA}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.h2o.ai/" xr:uid="{D105654F-BB50-4005-A5DC-8D4332CC8D82}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://aws.amazon.com/sagemaker/" xr:uid="{DB020EF7-578C-45D0-B747-C94A515F6B1D}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://azure.microsoft.com/en-us/services/machine-learning/" xr:uid="{C8279469-F717-44C8-BEF4-DB7AD4441BEF}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://www.ibm.com/cloud/watson-studio" xr:uid="{4E770144-97AD-40EF-8D92-B2C403B9DA5B}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://mlflow.org/" xr:uid="{9F3493DA-3369-435A-AAC2-703EAC101089}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://www.kubeflow.org/" xr:uid="{EF1B6C69-71BA-41B1-B9E4-EB1F00F46913}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://cloud.google.com/automl" xr:uid="{EE0DE900-C668-4AC1-B1AB-71000494A969}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://www.lobe.ai/" xr:uid="{221552A0-B378-45C9-996F-B4315AE58400}"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://www.dataiku.com/" xr:uid="{D1753F0F-019C-4F0C-88D0-C118A5AE29C2}"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://rapidminer.com/" xr:uid="{7DC789D4-4F70-47A7-A8CB-BC651C3C006A}"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://colab.research.google.com/" xr:uid="{9BA533BD-19D3-4FB1-A832-3210B242C1AE}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://www.tensorflow.org/tfx" xr:uid="{7FCE0BDF-06CE-41C2-91FE-FE981EE98556}"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://azure.microsoft.com/en-us/services/machine-learning/automated-ml/" xr:uid="{D22FA8FA-3CD1-4DC1-9AFE-B05E9041699C}"/>
-    <hyperlink ref="D18" r:id="rId16" display="https://aws.amazon.com/sagemaker/autopilot/" xr:uid="{19E0E3A9-3E27-4A13-AF6B-1B8A7B6F4358}"/>
-    <hyperlink ref="D19" r:id="rId17" display="https://neptune.ai/" xr:uid="{07BD712E-9FE7-48A4-BE7F-ECD2C3ECD3A3}"/>
-    <hyperlink ref="D20" r:id="rId18" display="https://wandb.ai/" xr:uid="{9DF423DC-D33A-44D7-B024-6FB2399C2EA7}"/>
-    <hyperlink ref="D21" r:id="rId19" display="https://www.comet.ml/" xr:uid="{786F034F-5794-4F80-9034-6E1BC629E5CA}"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://www.pachyderm.com/" xr:uid="{A42F538A-4A28-421F-A4F8-F2E24B23F87D}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{8044870A-7A1E-4445-95F9-DACE8FC1552D}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{15158B1D-477A-4D93-BDBA-3507D72FDBBA}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{D105654F-BB50-4005-A5DC-8D4332CC8D82}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{DB020EF7-578C-45D0-B747-C94A515F6B1D}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{C8279469-F717-44C8-BEF4-DB7AD4441BEF}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{4E770144-97AD-40EF-8D92-B2C403B9DA5B}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{9F3493DA-3369-435A-AAC2-703EAC101089}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{EF1B6C69-71BA-41B1-B9E4-EB1F00F46913}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{EE0DE900-C668-4AC1-B1AB-71000494A969}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{221552A0-B378-45C9-996F-B4315AE58400}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{D1753F0F-019C-4F0C-88D0-C118A5AE29C2}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{7DC789D4-4F70-47A7-A8CB-BC651C3C006A}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{9BA533BD-19D3-4FB1-A832-3210B242C1AE}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{7FCE0BDF-06CE-41C2-91FE-FE981EE98556}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{D22FA8FA-3CD1-4DC1-9AFE-B05E9041699C}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{19E0E3A9-3E27-4A13-AF6B-1B8A7B6F4358}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{07BD712E-9FE7-48A4-BE7F-ECD2C3ECD3A3}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{9DF423DC-D33A-44D7-B024-6FB2399C2EA7}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{786F034F-5794-4F80-9034-6E1BC629E5CA}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{A42F538A-4A28-421F-A4F8-F2E24B23F87D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
